--- a/Eagle/haptic_glove/haptic_glove_0_1_BOM.xlsx
+++ b/Eagle/haptic_glove/haptic_glove_0_1_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\VSProjects\haptic-glove\Eagle\haptic_glove\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68105AB4-BF29-4F64-9DFE-36DF7D860A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164BB369-9659-4F2C-BDAA-79EB6E8FA88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="haptic_glove_0_1_BOM" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="165">
   <si>
     <t>Part</t>
   </si>
@@ -73,9 +73,6 @@
     <t>VALUE</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
     <t>1.0uF</t>
   </si>
   <si>
@@ -88,27 +85,6 @@
     <t>CAP-12417</t>
   </si>
   <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
     <t>C9</t>
   </si>
   <si>
@@ -127,9 +103,6 @@
     <t>C10</t>
   </si>
   <si>
-    <t>2.2nF</t>
-  </si>
-  <si>
     <t>C11</t>
   </si>
   <si>
@@ -160,9 +133,6 @@
     <t>CAP-11015</t>
   </si>
   <si>
-    <t>C14</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
@@ -551,6 +521,12 @@
   </si>
   <si>
     <t>X4</t>
+  </si>
+  <si>
+    <t>C1-8</t>
+  </si>
+  <si>
+    <t>2200pF</t>
   </si>
 </sst>
 </file>
@@ -693,7 +669,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -871,6 +847,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1034,8 +1016,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1393,8 +1376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1411,7 +1394,7 @@
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1452,1131 +1435,962 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
       <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>603</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" t="s">
+        <v>72</v>
+      </c>
+      <c r="N12">
+        <v>0.1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14">
-        <v>603</v>
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15">
-        <v>603</v>
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="I17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="J17" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="H18" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="I18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="J18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="H19" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="I19" t="s">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="J19" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" t="s">
+        <v>159</v>
+      </c>
+      <c r="L19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20" t="s">
+        <v>156</v>
+      </c>
+      <c r="I20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" t="s">
-        <v>77</v>
-      </c>
-      <c r="I20" t="s">
-        <v>78</v>
-      </c>
-      <c r="J20" t="s">
-        <v>79</v>
-      </c>
-      <c r="K20" t="s">
-        <v>80</v>
-      </c>
-      <c r="L20" t="s">
-        <v>81</v>
-      </c>
-      <c r="M20" t="s">
-        <v>82</v>
-      </c>
-      <c r="N20">
-        <v>0.1</v>
-      </c>
-      <c r="O20" t="s">
-        <v>83</v>
-      </c>
-      <c r="P20" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>85</v>
-      </c>
-      <c r="R20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="F21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>89</v>
       </c>
-      <c r="D21" t="s">
+      <c r="B30" t="s">
         <v>90</v>
       </c>
-      <c r="E21" t="s">
+      <c r="C30" t="s">
         <v>91</v>
       </c>
-      <c r="F21" t="s">
+      <c r="D30" t="s">
         <v>92</v>
       </c>
-      <c r="G21" t="s">
+      <c r="E30" t="s">
         <v>93</v>
       </c>
-      <c r="H21" t="s">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>94</v>
       </c>
-      <c r="I21" t="s">
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B32" t="s">
         <v>96</v>
       </c>
-      <c r="B22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" t="s">
-        <v>93</v>
-      </c>
-      <c r="H22" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C32" t="s">
         <v>97</v>
-      </c>
-      <c r="B23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" t="s">
-        <v>93</v>
-      </c>
-      <c r="H23" t="s">
-        <v>94</v>
-      </c>
-      <c r="I23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" t="s">
-        <v>93</v>
-      </c>
-      <c r="H24" t="s">
-        <v>94</v>
-      </c>
-      <c r="I24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27">
-        <v>603</v>
-      </c>
-      <c r="E27" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27" t="s">
-        <v>109</v>
-      </c>
-      <c r="G27" t="s">
-        <v>110</v>
-      </c>
-      <c r="H27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28">
-        <v>603</v>
-      </c>
-      <c r="E28" t="s">
-        <v>108</v>
-      </c>
-      <c r="F28" t="s">
-        <v>109</v>
-      </c>
-      <c r="G28" t="s">
-        <v>110</v>
-      </c>
-      <c r="H28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29">
-        <v>603</v>
-      </c>
-      <c r="E29" t="s">
-        <v>108</v>
-      </c>
-      <c r="F29" t="s">
-        <v>109</v>
-      </c>
-      <c r="G29" t="s">
-        <v>110</v>
-      </c>
-      <c r="H29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>113</v>
-      </c>
-      <c r="B30" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30">
-        <v>603</v>
-      </c>
-      <c r="E30" t="s">
-        <v>116</v>
-      </c>
-      <c r="F30" t="s">
-        <v>109</v>
-      </c>
-      <c r="G30" t="s">
-        <v>117</v>
-      </c>
-      <c r="H30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" t="s">
-        <v>121</v>
-      </c>
-      <c r="E31" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" t="s">
-        <v>103</v>
-      </c>
-      <c r="G31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>122</v>
-      </c>
-      <c r="B32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" t="s">
-        <v>124</v>
       </c>
       <c r="D32">
         <v>603</v>
       </c>
       <c r="E32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33">
+        <v>603</v>
+      </c>
+      <c r="E33" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" t="s">
+        <v>100</v>
+      </c>
+      <c r="H33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34">
+        <v>603</v>
+      </c>
+      <c r="E34" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" t="s">
+        <v>100</v>
+      </c>
+      <c r="H34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35">
+        <v>603</v>
+      </c>
+      <c r="E35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" t="s">
+        <v>107</v>
+      </c>
+      <c r="H35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36">
+        <v>603</v>
+      </c>
+      <c r="E36" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" t="s">
+        <v>116</v>
+      </c>
+      <c r="H36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" t="s">
+        <v>123</v>
+      </c>
+      <c r="G37" t="s">
+        <v>124</v>
+      </c>
+      <c r="H37" t="s">
         <v>125</v>
       </c>
-      <c r="F32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="I37" t="s">
         <v>126</v>
       </c>
-      <c r="H32" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>127</v>
-      </c>
-      <c r="B33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C33" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" t="s">
-        <v>121</v>
-      </c>
-      <c r="E33" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" t="s">
-        <v>103</v>
-      </c>
-      <c r="G33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>129</v>
-      </c>
-      <c r="B34" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34" t="s">
-        <v>131</v>
-      </c>
-      <c r="E34" t="s">
-        <v>132</v>
-      </c>
-      <c r="F34" t="s">
-        <v>133</v>
-      </c>
-      <c r="G34" t="s">
-        <v>134</v>
-      </c>
-      <c r="H34" t="s">
-        <v>135</v>
-      </c>
-      <c r="I34" t="s">
-        <v>136</v>
-      </c>
-      <c r="J34">
+      <c r="J37">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>137</v>
-      </c>
-      <c r="B35" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" t="s">
-        <v>139</v>
-      </c>
-      <c r="D35" t="s">
-        <v>140</v>
-      </c>
-      <c r="E35" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>142</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C36" t="s">
+      <c r="B46" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D36" t="s">
-        <v>140</v>
-      </c>
-      <c r="E36" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="C46" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B37" t="s">
-        <v>143</v>
-      </c>
-      <c r="C37" t="s">
-        <v>144</v>
-      </c>
-      <c r="D37" t="s">
-        <v>140</v>
-      </c>
-      <c r="E37" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B47" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C47" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D47" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E47" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>150</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="F47" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C39" t="s">
-        <v>147</v>
-      </c>
-      <c r="D39" t="s">
-        <v>148</v>
-      </c>
-      <c r="E39" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>151</v>
-      </c>
-      <c r="B40" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" t="s">
-        <v>147</v>
-      </c>
-      <c r="D40" t="s">
-        <v>148</v>
-      </c>
-      <c r="E40" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>152</v>
-      </c>
-      <c r="B41" t="s">
-        <v>147</v>
-      </c>
-      <c r="C41" t="s">
-        <v>147</v>
-      </c>
-      <c r="D41" t="s">
-        <v>148</v>
-      </c>
-      <c r="E41" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>153</v>
-      </c>
-      <c r="B42" t="s">
-        <v>154</v>
-      </c>
-      <c r="C42" t="s">
-        <v>154</v>
-      </c>
-      <c r="D42" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>156</v>
-      </c>
-      <c r="B43" t="s">
-        <v>157</v>
-      </c>
-      <c r="C43" t="s">
-        <v>157</v>
-      </c>
-      <c r="D43" t="s">
-        <v>158</v>
-      </c>
-      <c r="E43" t="s">
-        <v>159</v>
-      </c>
-      <c r="F43" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>160</v>
-      </c>
-      <c r="B44" t="s">
-        <v>161</v>
-      </c>
-      <c r="C44" t="s">
-        <v>161</v>
-      </c>
-      <c r="D44" t="s">
-        <v>162</v>
-      </c>
-      <c r="E44" t="s">
-        <v>163</v>
-      </c>
-      <c r="F44" t="s">
-        <v>164</v>
-      </c>
-      <c r="G44" t="s">
-        <v>165</v>
-      </c>
-      <c r="H44" t="s">
-        <v>166</v>
-      </c>
-      <c r="I44" t="s">
-        <v>167</v>
-      </c>
-      <c r="J44" t="s">
-        <v>168</v>
-      </c>
-      <c r="K44" t="s">
-        <v>169</v>
-      </c>
-      <c r="L44" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>170</v>
-      </c>
-      <c r="B45" t="s">
-        <v>161</v>
-      </c>
-      <c r="C45" t="s">
-        <v>161</v>
-      </c>
-      <c r="D45" t="s">
-        <v>162</v>
-      </c>
-      <c r="E45" t="s">
-        <v>163</v>
-      </c>
-      <c r="F45" t="s">
-        <v>164</v>
-      </c>
-      <c r="G45" t="s">
-        <v>165</v>
-      </c>
-      <c r="H45" t="s">
-        <v>166</v>
-      </c>
-      <c r="I45" t="s">
-        <v>167</v>
-      </c>
-      <c r="J45" t="s">
-        <v>168</v>
-      </c>
-      <c r="K45" t="s">
-        <v>169</v>
-      </c>
-      <c r="L45" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>171</v>
-      </c>
-      <c r="B46" t="s">
-        <v>161</v>
-      </c>
-      <c r="C46" t="s">
-        <v>161</v>
-      </c>
-      <c r="D46" t="s">
-        <v>162</v>
-      </c>
-      <c r="E46" t="s">
-        <v>163</v>
-      </c>
-      <c r="F46" t="s">
-        <v>164</v>
-      </c>
-      <c r="G46" t="s">
-        <v>165</v>
-      </c>
-      <c r="H46" t="s">
-        <v>166</v>
-      </c>
-      <c r="I46" t="s">
-        <v>167</v>
-      </c>
-      <c r="J46" t="s">
-        <v>168</v>
-      </c>
-      <c r="K46" t="s">
-        <v>169</v>
-      </c>
-      <c r="L46" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>172</v>
-      </c>
-      <c r="B47" t="s">
-        <v>161</v>
-      </c>
-      <c r="C47" t="s">
-        <v>161</v>
-      </c>
-      <c r="D47" t="s">
-        <v>162</v>
-      </c>
-      <c r="E47" t="s">
-        <v>163</v>
-      </c>
-      <c r="F47" t="s">
-        <v>164</v>
-      </c>
-      <c r="G47" t="s">
-        <v>165</v>
-      </c>
-      <c r="H47" t="s">
-        <v>166</v>
-      </c>
-      <c r="I47" t="s">
-        <v>167</v>
-      </c>
-      <c r="J47" t="s">
-        <v>168</v>
-      </c>
-      <c r="K47" t="s">
-        <v>169</v>
-      </c>
-      <c r="L47" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
